--- a/BackTest/2020-01-12 BackTest PCM.xlsx
+++ b/BackTest/2020-01-12 BackTest PCM.xlsx
@@ -11304,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
@@ -12424,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
@@ -19106,20 +19106,14 @@
         <v>8.970333333333322</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
       </c>
-      <c r="J535" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L535" t="inlineStr"/>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19147,20 +19141,14 @@
         <v>8.966999999999988</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
       </c>
-      <c r="J536" t="n">
-        <v>8.869999999999999</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19188,20 +19176,14 @@
         <v>8.963666666666656</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
       </c>
-      <c r="J537" t="n">
-        <v>8.869999999999999</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19229,20 +19211,14 @@
         <v>8.960499999999991</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
       </c>
-      <c r="J538" t="n">
-        <v>8.859999999999999</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L538" t="inlineStr"/>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19270,20 +19246,14 @@
         <v>8.957333333333326</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
       </c>
-      <c r="J539" t="n">
-        <v>8.869999999999999</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19311,20 +19281,14 @@
         <v>8.954166666666659</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
       </c>
-      <c r="J540" t="n">
-        <v>8.869999999999999</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L540" t="inlineStr"/>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19352,20 +19316,14 @@
         <v>8.950999999999993</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
       </c>
-      <c r="J541" t="n">
-        <v>8.869999999999999</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19393,20 +19351,14 @@
         <v>8.94766666666666</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
       </c>
-      <c r="J542" t="n">
-        <v>8.869999999999999</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19434,20 +19386,14 @@
         <v>8.944499999999994</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
       </c>
-      <c r="J543" t="n">
-        <v>8.869999999999999</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19475,20 +19421,14 @@
         <v>8.941666666666661</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
       </c>
-      <c r="J544" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19516,20 +19456,14 @@
         <v>8.938833333333328</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
       </c>
-      <c r="J545" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19557,20 +19491,14 @@
         <v>8.936166666666661</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
       </c>
-      <c r="J546" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19598,20 +19526,14 @@
         <v>8.933499999999997</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
       </c>
-      <c r="J547" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L547" t="inlineStr"/>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19639,20 +19561,14 @@
         <v>8.930999999999996</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
       </c>
-      <c r="J548" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19680,20 +19596,14 @@
         <v>8.930666666666664</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
       </c>
-      <c r="J549" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -19721,20 +19631,14 @@
         <v>8.930666666666664</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
       </c>
-      <c r="J550" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -19762,20 +19666,14 @@
         <v>8.930666666666664</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
       </c>
-      <c r="J551" t="n">
-        <v>9.02</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -19810,11 +19708,7 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L552" t="inlineStr"/>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -19849,11 +19743,7 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -19888,11 +19778,7 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L554" t="inlineStr"/>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -19927,11 +19813,7 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -19966,11 +19848,7 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20005,11 +19883,7 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L557" t="inlineStr"/>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20044,11 +19918,7 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L558" t="inlineStr"/>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20083,11 +19953,7 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L559" t="inlineStr"/>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20122,11 +19988,7 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L560" t="inlineStr"/>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20161,11 +20023,7 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L561" t="inlineStr"/>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20200,11 +20058,7 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L562" t="inlineStr"/>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20239,11 +20093,7 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L563" t="inlineStr"/>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20278,11 +20128,7 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L564" t="inlineStr"/>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20313,15 +20159,11 @@
         <v>0</v>
       </c>
       <c r="I565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L565" t="inlineStr"/>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20356,11 +20198,7 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L566" t="inlineStr"/>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20395,11 +20233,7 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L567" t="inlineStr"/>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20434,11 +20268,7 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L568" t="inlineStr"/>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20473,11 +20303,7 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L569" t="inlineStr"/>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20512,11 +20338,7 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L570" t="inlineStr"/>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20551,11 +20373,7 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L571" t="inlineStr"/>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20590,11 +20408,7 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L572" t="inlineStr"/>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -20629,11 +20443,7 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L573" t="inlineStr"/>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -20668,11 +20478,7 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L574" t="inlineStr"/>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -20707,11 +20513,7 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L575" t="inlineStr"/>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -20746,11 +20548,7 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L576" t="inlineStr"/>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -20785,11 +20583,7 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L577" t="inlineStr"/>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -20824,11 +20618,7 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L578" t="inlineStr"/>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -20863,11 +20653,7 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L579" t="inlineStr"/>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -20902,11 +20688,7 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L580" t="inlineStr"/>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -20941,11 +20723,7 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L581" t="inlineStr"/>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -20980,11 +20758,7 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L582" t="inlineStr"/>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21019,11 +20793,7 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L583" t="inlineStr"/>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21058,11 +20828,7 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L584" t="inlineStr"/>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21097,11 +20863,7 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L585" t="inlineStr"/>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21136,11 +20898,7 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L586" t="inlineStr"/>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21175,11 +20933,7 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L587" t="inlineStr"/>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21214,11 +20968,7 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L588" t="inlineStr"/>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21253,11 +21003,7 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L589" t="inlineStr"/>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21292,11 +21038,7 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L590" t="inlineStr"/>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21331,11 +21073,7 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L591" t="inlineStr"/>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21370,11 +21108,7 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L592" t="inlineStr"/>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21409,11 +21143,7 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L593" t="inlineStr"/>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21448,11 +21178,7 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L594" t="inlineStr"/>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21487,11 +21213,7 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L595" t="inlineStr"/>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21526,11 +21248,7 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L596" t="inlineStr"/>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21565,11 +21283,7 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L597" t="inlineStr"/>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21604,11 +21318,7 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L598" t="inlineStr"/>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21643,11 +21353,7 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L599" t="inlineStr"/>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -21682,11 +21388,7 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L600" t="inlineStr"/>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -21721,11 +21423,7 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L601" t="inlineStr"/>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -21760,11 +21458,7 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L602" t="inlineStr"/>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -21799,11 +21493,7 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L603" t="inlineStr"/>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -21838,11 +21528,7 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L604" t="inlineStr"/>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -21877,11 +21563,7 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L605" t="inlineStr"/>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -21916,11 +21598,7 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L606" t="inlineStr"/>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -21955,11 +21633,7 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L607" t="inlineStr"/>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -21994,11 +21668,7 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L608" t="inlineStr"/>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22033,11 +21703,7 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L609" t="inlineStr"/>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22072,11 +21738,7 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L610" t="inlineStr"/>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22111,11 +21773,7 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L611" t="inlineStr"/>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22150,11 +21808,7 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L612" t="inlineStr"/>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22189,11 +21843,7 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L613" t="inlineStr"/>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22228,11 +21878,7 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L614" t="inlineStr"/>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22267,11 +21913,7 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L615" t="inlineStr"/>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22306,11 +21948,7 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L616" t="inlineStr"/>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22345,11 +21983,7 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L617" t="inlineStr"/>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22384,11 +22018,7 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L618" t="inlineStr"/>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22423,11 +22053,7 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L619" t="inlineStr"/>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22462,11 +22088,7 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L620" t="inlineStr"/>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22501,11 +22123,7 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L621" t="inlineStr"/>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22540,11 +22158,7 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L622" t="inlineStr"/>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22579,11 +22193,7 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L623" t="inlineStr"/>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22618,11 +22228,7 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L624" t="inlineStr"/>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22657,11 +22263,7 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L625" t="inlineStr"/>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22696,11 +22298,7 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L626" t="inlineStr"/>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22735,11 +22333,7 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L627" t="inlineStr"/>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -22774,11 +22368,7 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L628" t="inlineStr"/>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -22813,11 +22403,7 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L629" t="inlineStr"/>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -22852,11 +22438,7 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L630" t="inlineStr"/>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -22891,11 +22473,7 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L631" t="inlineStr"/>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -22930,11 +22508,7 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L632" t="inlineStr"/>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -22969,11 +22543,7 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L633" t="inlineStr"/>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23008,11 +22578,7 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L634" t="inlineStr"/>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23047,11 +22613,7 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L635" t="inlineStr"/>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23086,11 +22648,7 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L636" t="inlineStr"/>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23125,11 +22683,7 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L637" t="inlineStr"/>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23164,11 +22718,7 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L638" t="inlineStr"/>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23203,11 +22753,7 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L639" t="inlineStr"/>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23242,11 +22788,7 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L640" t="inlineStr"/>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23281,11 +22823,7 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L641" t="inlineStr"/>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23320,11 +22858,7 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L642" t="inlineStr"/>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23359,11 +22893,7 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L643" t="inlineStr"/>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23398,11 +22928,7 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L644" t="inlineStr"/>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -23437,11 +22963,7 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L645" t="inlineStr"/>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -23476,11 +22998,7 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L646" t="inlineStr"/>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23515,11 +23033,7 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L647" t="inlineStr"/>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23554,11 +23068,7 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L648" t="inlineStr"/>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23593,11 +23103,7 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L649" t="inlineStr"/>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23632,11 +23138,7 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L650" t="inlineStr"/>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23671,11 +23173,7 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L651" t="inlineStr"/>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23710,11 +23208,7 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L652" t="inlineStr"/>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23749,11 +23243,7 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L653" t="inlineStr"/>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23788,11 +23278,7 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L654" t="inlineStr"/>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23827,11 +23313,7 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L655" t="inlineStr"/>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23866,11 +23348,7 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L656" t="inlineStr"/>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -23905,11 +23383,7 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L657" t="inlineStr"/>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -23944,11 +23418,7 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L658" t="inlineStr"/>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -23983,11 +23453,7 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L659" t="inlineStr"/>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -24022,11 +23488,7 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L660" t="inlineStr"/>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -24061,11 +23523,7 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L661" t="inlineStr"/>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -24100,11 +23558,7 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L662" t="inlineStr"/>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -24139,11 +23593,7 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L663" t="inlineStr"/>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -24178,11 +23628,7 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L664" t="inlineStr"/>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24217,11 +23663,7 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L665" t="inlineStr"/>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24256,11 +23698,7 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L666" t="inlineStr"/>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24295,11 +23733,7 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L667" t="inlineStr"/>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24334,11 +23768,7 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L668" t="inlineStr"/>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -24373,11 +23803,7 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L669" t="inlineStr"/>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -24412,11 +23838,7 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L670" t="inlineStr"/>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -24451,11 +23873,7 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L671" t="inlineStr"/>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -24490,11 +23908,7 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L672" t="inlineStr"/>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -24529,11 +23943,7 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L673" t="inlineStr"/>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -24568,11 +23978,7 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L674" t="inlineStr"/>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24607,11 +24013,7 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L675" t="inlineStr"/>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24646,11 +24048,7 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L676" t="inlineStr"/>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24685,11 +24083,7 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L677" t="inlineStr"/>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24724,11 +24118,7 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L678" t="inlineStr"/>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24763,11 +24153,7 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L679" t="inlineStr"/>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24802,11 +24188,7 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L680" t="inlineStr"/>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24841,11 +24223,7 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L681" t="inlineStr"/>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24880,11 +24258,7 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L682" t="inlineStr"/>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24919,11 +24293,7 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L683" t="inlineStr"/>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24958,11 +24328,7 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L684" t="inlineStr"/>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -24997,11 +24363,7 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L685" t="inlineStr"/>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -25036,11 +24398,7 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L686" t="inlineStr"/>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -25075,11 +24433,7 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L687" t="inlineStr"/>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -25114,11 +24468,7 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L688" t="inlineStr"/>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -25153,11 +24503,7 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L689" t="inlineStr"/>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -25192,11 +24538,7 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L690" t="inlineStr"/>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -25231,11 +24573,7 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L691" t="inlineStr"/>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -25270,11 +24608,7 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L692" t="inlineStr"/>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -25309,11 +24643,7 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L693" t="inlineStr"/>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -25348,11 +24678,7 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L694" t="inlineStr"/>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -25387,11 +24713,7 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L695" t="inlineStr"/>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -25426,11 +24748,7 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L696" t="inlineStr"/>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -25465,11 +24783,7 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L697" t="inlineStr"/>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -25504,11 +24818,7 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L698" t="inlineStr"/>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -25543,11 +24853,7 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L699" t="inlineStr"/>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -25582,11 +24888,7 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L700" t="inlineStr"/>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -25621,11 +24923,7 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L701" t="inlineStr"/>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -25660,11 +24958,7 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L702" t="inlineStr"/>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -25699,11 +24993,7 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L703" t="inlineStr"/>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -25738,11 +25028,7 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L704" t="inlineStr"/>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -25777,11 +25063,7 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L705" t="inlineStr"/>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -25816,11 +25098,7 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L706" t="inlineStr"/>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25855,11 +25133,7 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L707" t="inlineStr"/>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25894,11 +25168,7 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L708" t="inlineStr"/>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -25933,11 +25203,7 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L709" t="inlineStr"/>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -25972,11 +25238,7 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L710" t="inlineStr"/>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -26011,11 +25273,7 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L711" t="inlineStr"/>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -26050,11 +25308,7 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L712" t="inlineStr"/>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -26089,11 +25343,7 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L713" t="inlineStr"/>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -26128,11 +25378,7 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L714" t="inlineStr"/>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -26167,11 +25413,7 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L715" t="inlineStr"/>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -26206,11 +25448,7 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L716" t="inlineStr"/>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -26245,11 +25483,7 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L717" t="inlineStr"/>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -26284,11 +25518,7 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L718" t="inlineStr"/>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -26323,11 +25553,7 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L719" t="inlineStr"/>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -26362,11 +25588,7 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L720" t="inlineStr"/>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -26401,11 +25623,7 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L721" t="inlineStr"/>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -26440,11 +25658,7 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L722" t="inlineStr"/>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -26479,11 +25693,7 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L723" t="inlineStr"/>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -26518,11 +25728,7 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L724" t="inlineStr"/>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -26557,11 +25763,7 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L725" t="inlineStr"/>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -26596,11 +25798,7 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L726" t="inlineStr"/>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -26635,11 +25833,7 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L727" t="inlineStr"/>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -26674,11 +25868,7 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L728" t="inlineStr"/>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -26713,11 +25903,7 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L729" t="inlineStr"/>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -26752,11 +25938,7 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L730" t="inlineStr"/>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -26791,11 +25973,7 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L731" t="inlineStr"/>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -26830,11 +26008,7 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L732" t="inlineStr"/>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -26869,11 +26043,7 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L733" t="inlineStr"/>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -26908,11 +26078,7 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L734" t="inlineStr"/>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -26947,11 +26113,7 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L735" t="inlineStr"/>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -26986,11 +26148,7 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L736" t="inlineStr"/>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -27025,11 +26183,7 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L737" t="inlineStr"/>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -27064,11 +26218,7 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L738" t="inlineStr"/>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -27103,11 +26253,7 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L739" t="inlineStr"/>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -27142,11 +26288,7 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L740" t="inlineStr"/>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -27181,11 +26323,7 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L741" t="inlineStr"/>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -27220,11 +26358,7 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L742" t="inlineStr"/>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -27259,11 +26393,7 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L743" t="inlineStr"/>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -27298,11 +26428,7 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L744" t="inlineStr"/>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -27337,11 +26463,7 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L745" t="inlineStr"/>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -27376,11 +26498,7 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L746" t="inlineStr"/>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -27415,11 +26533,7 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L747" t="inlineStr"/>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -27454,11 +26568,7 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L748" t="inlineStr"/>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -27493,11 +26603,7 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L749" t="inlineStr"/>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -27532,11 +26638,7 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L750" t="inlineStr"/>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -27571,11 +26673,7 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L751" t="inlineStr"/>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -27610,11 +26708,7 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L752" t="inlineStr"/>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -27649,11 +26743,7 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L753" t="inlineStr"/>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -27688,11 +26778,7 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L754" t="inlineStr"/>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -27727,11 +26813,7 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L755" t="inlineStr"/>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -27766,11 +26848,7 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L756" t="inlineStr"/>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -27805,11 +26883,7 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L757" t="inlineStr"/>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -27844,11 +26918,7 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L758" t="inlineStr"/>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -27879,16 +26949,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M759" t="inlineStr"/>
+      <c r="L759" t="inlineStr"/>
+      <c r="M759" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="1" t="n">
@@ -36978,13 +36046,17 @@
         <v>9.049166666666682</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1019" t="n">
         <v>0</v>
       </c>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="J1019" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>8.94</v>
+      </c>
       <c r="L1019" t="inlineStr"/>
       <c r="M1019" t="n">
         <v>1</v>
@@ -37019,8 +36091,14 @@
         <v>0</v>
       </c>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
-      <c r="L1020" t="inlineStr"/>
+      <c r="K1020" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1020" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M1020" t="n">
         <v>1</v>
       </c>
@@ -37048,14 +36126,22 @@
         <v>9.04533333333335</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1021" t="n">
         <v>0</v>
       </c>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
-      <c r="L1021" t="inlineStr"/>
+      <c r="J1021" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1021" t="n">
         <v>1</v>
       </c>
@@ -37083,14 +36169,22 @@
         <v>9.043333333333349</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1022" t="n">
         <v>0</v>
       </c>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
-      <c r="L1022" t="inlineStr"/>
+      <c r="J1022" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1022" t="n">
         <v>1</v>
       </c>
@@ -37124,8 +36218,14 @@
         <v>0</v>
       </c>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
-      <c r="L1023" t="inlineStr"/>
+      <c r="K1023" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1023" t="n">
         <v>1</v>
       </c>
@@ -37159,8 +36259,14 @@
         <v>0</v>
       </c>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
-      <c r="L1024" t="inlineStr"/>
+      <c r="K1024" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1024" t="n">
         <v>1</v>
       </c>
@@ -37194,8 +36300,14 @@
         <v>0</v>
       </c>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
-      <c r="L1025" t="inlineStr"/>
+      <c r="K1025" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1025" t="n">
         <v>1</v>
       </c>
@@ -37229,8 +36341,14 @@
         <v>0</v>
       </c>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
-      <c r="L1026" t="inlineStr"/>
+      <c r="K1026" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1026" t="n">
         <v>1</v>
       </c>
@@ -37264,8 +36382,14 @@
         <v>0</v>
       </c>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
-      <c r="L1027" t="inlineStr"/>
+      <c r="K1027" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1027" t="n">
         <v>1</v>
       </c>
@@ -37299,8 +36423,14 @@
         <v>0</v>
       </c>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
-      <c r="L1028" t="inlineStr"/>
+      <c r="K1028" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1028" t="n">
         <v>1</v>
       </c>
@@ -37334,8 +36464,14 @@
         <v>0</v>
       </c>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
-      <c r="L1029" t="inlineStr"/>
+      <c r="K1029" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1029" t="n">
         <v>1</v>
       </c>
@@ -37369,8 +36505,14 @@
         <v>0</v>
       </c>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
-      <c r="L1030" t="inlineStr"/>
+      <c r="K1030" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1030" t="n">
         <v>1</v>
       </c>
@@ -37404,8 +36546,14 @@
         <v>0</v>
       </c>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
-      <c r="L1031" t="inlineStr"/>
+      <c r="K1031" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1031" t="n">
         <v>1</v>
       </c>
@@ -37439,8 +36587,14 @@
         <v>0</v>
       </c>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
-      <c r="L1032" t="inlineStr"/>
+      <c r="K1032" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1032" t="n">
         <v>1</v>
       </c>
@@ -37474,8 +36628,14 @@
         <v>0</v>
       </c>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
-      <c r="L1033" t="inlineStr"/>
+      <c r="K1033" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1033" t="n">
         <v>1</v>
       </c>
@@ -37509,8 +36669,14 @@
         <v>0</v>
       </c>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
-      <c r="L1034" t="inlineStr"/>
+      <c r="K1034" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1034" t="n">
         <v>1</v>
       </c>
@@ -37538,14 +36704,22 @@
         <v>9.013300000000015</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1035" t="n">
         <v>0</v>
       </c>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
-      <c r="L1035" t="inlineStr"/>
+      <c r="J1035" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1035" t="n">
         <v>1</v>
       </c>
@@ -37573,14 +36747,22 @@
         <v>9.011066666666682</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1036" t="n">
         <v>0</v>
       </c>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
-      <c r="L1036" t="inlineStr"/>
+      <c r="J1036" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1036" t="n">
         <v>1</v>
       </c>
@@ -37608,14 +36790,22 @@
         <v>9.008733333333348</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1037" t="n">
         <v>0</v>
       </c>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
-      <c r="L1037" t="inlineStr"/>
+      <c r="J1037" t="n">
+        <v>8.946</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1037" t="n">
         <v>1</v>
       </c>
@@ -37643,14 +36833,22 @@
         <v>9.009216666666681</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1038" t="n">
         <v>0</v>
       </c>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
-      <c r="L1038" t="inlineStr"/>
+      <c r="J1038" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1038" t="n">
         <v>1</v>
       </c>
@@ -37678,14 +36876,22 @@
         <v>9.006883333333349</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1039" t="n">
         <v>0</v>
       </c>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
-      <c r="L1039" t="inlineStr"/>
+      <c r="J1039" t="n">
+        <v>9.109</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1039" t="n">
         <v>1</v>
       </c>
@@ -37719,8 +36925,14 @@
         <v>0</v>
       </c>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
-      <c r="L1040" t="inlineStr"/>
+      <c r="K1040" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1040" t="n">
         <v>1</v>
       </c>
@@ -37754,8 +36966,14 @@
         <v>0</v>
       </c>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
-      <c r="L1041" t="inlineStr"/>
+      <c r="K1041" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1041" t="n">
         <v>1</v>
       </c>
@@ -37789,8 +37007,14 @@
         <v>0</v>
       </c>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
-      <c r="L1042" t="inlineStr"/>
+      <c r="K1042" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1042" t="n">
         <v>1</v>
       </c>
@@ -37824,8 +37048,14 @@
         <v>0</v>
       </c>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
-      <c r="L1043" t="inlineStr"/>
+      <c r="K1043" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1043" t="n">
         <v>1</v>
       </c>
@@ -37859,8 +37089,14 @@
         <v>0</v>
       </c>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
-      <c r="L1044" t="inlineStr"/>
+      <c r="K1044" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1044" t="n">
         <v>1</v>
       </c>
@@ -37894,8 +37130,14 @@
         <v>0</v>
       </c>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
-      <c r="L1045" t="inlineStr"/>
+      <c r="K1045" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1045" t="n">
         <v>1</v>
       </c>
@@ -37929,8 +37171,14 @@
         <v>0</v>
       </c>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
-      <c r="L1046" t="inlineStr"/>
+      <c r="K1046" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1046" t="n">
         <v>1</v>
       </c>
@@ -37964,8 +37212,14 @@
         <v>0</v>
       </c>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
-      <c r="L1047" t="inlineStr"/>
+      <c r="K1047" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1047" t="n">
         <v>1</v>
       </c>
@@ -37999,8 +37253,14 @@
         <v>0</v>
       </c>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
-      <c r="L1048" t="inlineStr"/>
+      <c r="K1048" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1048" t="n">
         <v>1</v>
       </c>
@@ -38034,8 +37294,14 @@
         <v>0</v>
       </c>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
-      <c r="L1049" t="inlineStr"/>
+      <c r="K1049" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1049" t="n">
         <v>1</v>
       </c>
@@ -38069,8 +37335,14 @@
         <v>0</v>
       </c>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
-      <c r="L1050" t="inlineStr"/>
+      <c r="K1050" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1050" t="n">
         <v>1</v>
       </c>
@@ -38104,8 +37376,14 @@
         <v>0</v>
       </c>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
-      <c r="L1051" t="inlineStr"/>
+      <c r="K1051" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1051" t="n">
         <v>1</v>
       </c>
@@ -38139,8 +37417,14 @@
         <v>0</v>
       </c>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
-      <c r="L1052" t="inlineStr"/>
+      <c r="K1052" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1052" t="n">
         <v>1</v>
       </c>
@@ -38174,8 +37458,14 @@
         <v>0</v>
       </c>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
-      <c r="L1053" t="inlineStr"/>
+      <c r="K1053" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1053" t="n">
         <v>1</v>
       </c>
@@ -38209,8 +37499,14 @@
         <v>0</v>
       </c>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
-      <c r="L1054" t="inlineStr"/>
+      <c r="K1054" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1054" t="n">
         <v>1</v>
       </c>
@@ -38244,8 +37540,14 @@
         <v>0</v>
       </c>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
-      <c r="L1055" t="inlineStr"/>
+      <c r="K1055" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1055" t="n">
         <v>1</v>
       </c>
@@ -38279,8 +37581,14 @@
         <v>0</v>
       </c>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
-      <c r="L1056" t="inlineStr"/>
+      <c r="K1056" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1056" t="n">
         <v>1</v>
       </c>
@@ -38314,8 +37622,14 @@
         <v>0</v>
       </c>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
-      <c r="L1057" t="inlineStr"/>
+      <c r="K1057" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1057" t="n">
         <v>1</v>
       </c>
@@ -38349,8 +37663,14 @@
         <v>0</v>
       </c>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
-      <c r="L1058" t="inlineStr"/>
+      <c r="K1058" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1058" t="n">
         <v>1</v>
       </c>
@@ -38384,8 +37704,14 @@
         <v>0</v>
       </c>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
-      <c r="L1059" t="inlineStr"/>
+      <c r="K1059" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1059" t="n">
         <v>1</v>
       </c>
@@ -38419,8 +37745,14 @@
         <v>0</v>
       </c>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
-      <c r="L1060" t="inlineStr"/>
+      <c r="K1060" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1060" t="n">
         <v>1</v>
       </c>
@@ -38454,8 +37786,14 @@
         <v>0</v>
       </c>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
-      <c r="L1061" t="inlineStr"/>
+      <c r="K1061" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1061" t="n">
         <v>1</v>
       </c>
@@ -38489,8 +37827,14 @@
         <v>0</v>
       </c>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
-      <c r="L1062" t="inlineStr"/>
+      <c r="K1062" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1062" t="n">
         <v>1</v>
       </c>
@@ -38524,8 +37868,14 @@
         <v>0</v>
       </c>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
-      <c r="L1063" t="inlineStr"/>
+      <c r="K1063" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1063" t="n">
         <v>1</v>
       </c>
@@ -38559,8 +37909,14 @@
         <v>0</v>
       </c>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
-      <c r="L1064" t="inlineStr"/>
+      <c r="K1064" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1064" t="n">
         <v>1</v>
       </c>
@@ -38594,8 +37950,14 @@
         <v>0</v>
       </c>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
-      <c r="L1065" t="inlineStr"/>
+      <c r="K1065" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1065" t="n">
         <v>1</v>
       </c>
@@ -38629,8 +37991,14 @@
         <v>0</v>
       </c>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
-      <c r="L1066" t="inlineStr"/>
+      <c r="K1066" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1066" t="n">
         <v>1</v>
       </c>
@@ -38664,8 +38032,14 @@
         <v>0</v>
       </c>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
-      <c r="L1067" t="inlineStr"/>
+      <c r="K1067" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1067" t="n">
         <v>1</v>
       </c>
@@ -38699,8 +38073,14 @@
         <v>0</v>
       </c>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
-      <c r="L1068" t="inlineStr"/>
+      <c r="K1068" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1068" t="n">
         <v>1</v>
       </c>
@@ -38734,8 +38114,14 @@
         <v>0</v>
       </c>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
-      <c r="L1069" t="inlineStr"/>
+      <c r="K1069" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1069" t="n">
         <v>1</v>
       </c>
@@ -38769,8 +38155,14 @@
         <v>0</v>
       </c>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
-      <c r="L1070" t="inlineStr"/>
+      <c r="K1070" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1070" t="n">
         <v>1</v>
       </c>
@@ -38804,8 +38196,14 @@
         <v>0</v>
       </c>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
-      <c r="L1071" t="inlineStr"/>
+      <c r="K1071" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1071" t="n">
         <v>1</v>
       </c>
@@ -38839,8 +38237,14 @@
         <v>0</v>
       </c>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
-      <c r="L1072" t="inlineStr"/>
+      <c r="K1072" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1072" t="n">
         <v>1</v>
       </c>
@@ -38874,8 +38278,14 @@
         <v>0</v>
       </c>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
-      <c r="L1073" t="inlineStr"/>
+      <c r="K1073" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1073" t="n">
         <v>1</v>
       </c>
@@ -38909,8 +38319,14 @@
         <v>0</v>
       </c>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
-      <c r="L1074" t="inlineStr"/>
+      <c r="K1074" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1074" t="n">
         <v>1</v>
       </c>
@@ -38944,8 +38360,14 @@
         <v>0</v>
       </c>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
-      <c r="L1075" t="inlineStr"/>
+      <c r="K1075" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1075" t="n">
         <v>1</v>
       </c>
@@ -38979,8 +38401,14 @@
         <v>0</v>
       </c>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
-      <c r="L1076" t="inlineStr"/>
+      <c r="K1076" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1076" t="n">
         <v>1</v>
       </c>
@@ -39014,8 +38442,14 @@
         <v>0</v>
       </c>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
-      <c r="L1077" t="inlineStr"/>
+      <c r="K1077" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1077" t="n">
         <v>1</v>
       </c>
@@ -39049,8 +38483,14 @@
         <v>0</v>
       </c>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
-      <c r="L1078" t="inlineStr"/>
+      <c r="K1078" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1078" t="n">
         <v>1</v>
       </c>
@@ -39084,8 +38524,14 @@
         <v>0</v>
       </c>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
-      <c r="L1079" t="inlineStr"/>
+      <c r="K1079" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1079" t="n">
         <v>1</v>
       </c>
@@ -39119,8 +38565,14 @@
         <v>0</v>
       </c>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
-      <c r="L1080" t="inlineStr"/>
+      <c r="K1080" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1080" t="n">
         <v>1</v>
       </c>
@@ -39154,8 +38606,14 @@
         <v>0</v>
       </c>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
-      <c r="L1081" t="inlineStr"/>
+      <c r="K1081" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1081" t="n">
         <v>1</v>
       </c>
@@ -39189,8 +38647,14 @@
         <v>0</v>
       </c>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
-      <c r="L1082" t="inlineStr"/>
+      <c r="K1082" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1082" t="n">
         <v>1</v>
       </c>
@@ -39224,8 +38688,14 @@
         <v>0</v>
       </c>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
-      <c r="L1083" t="inlineStr"/>
+      <c r="K1083" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1083" t="n">
         <v>1</v>
       </c>
@@ -39259,8 +38729,14 @@
         <v>0</v>
       </c>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
-      <c r="L1084" t="inlineStr"/>
+      <c r="K1084" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1084" t="n">
         <v>1</v>
       </c>
@@ -39294,8 +38770,14 @@
         <v>0</v>
       </c>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
-      <c r="L1085" t="inlineStr"/>
+      <c r="K1085" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1085" t="n">
         <v>1</v>
       </c>
@@ -39329,8 +38811,14 @@
         <v>0</v>
       </c>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
-      <c r="L1086" t="inlineStr"/>
+      <c r="K1086" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1086" t="n">
         <v>1</v>
       </c>
@@ -39364,8 +38852,14 @@
         <v>0</v>
       </c>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
-      <c r="L1087" t="inlineStr"/>
+      <c r="K1087" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1087" t="n">
         <v>1</v>
       </c>
@@ -39399,8 +38893,14 @@
         <v>0</v>
       </c>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
-      <c r="L1088" t="inlineStr"/>
+      <c r="K1088" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1088" t="n">
         <v>1</v>
       </c>
@@ -39434,8 +38934,14 @@
         <v>0</v>
       </c>
       <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
-      <c r="L1089" t="inlineStr"/>
+      <c r="K1089" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1089" t="n">
         <v>1</v>
       </c>
@@ -39469,8 +38975,14 @@
         <v>0</v>
       </c>
       <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
-      <c r="L1090" t="inlineStr"/>
+      <c r="K1090" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1090" t="n">
         <v>1</v>
       </c>
@@ -39504,8 +39016,14 @@
         <v>0</v>
       </c>
       <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
-      <c r="L1091" t="inlineStr"/>
+      <c r="K1091" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1091" t="n">
         <v>1</v>
       </c>
@@ -39539,8 +39057,14 @@
         <v>0</v>
       </c>
       <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
-      <c r="L1092" t="inlineStr"/>
+      <c r="K1092" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1092" t="n">
         <v>1</v>
       </c>
@@ -39574,8 +39098,14 @@
         <v>0</v>
       </c>
       <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
-      <c r="L1093" t="inlineStr"/>
+      <c r="K1093" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1093" t="n">
         <v>1</v>
       </c>
@@ -39609,8 +39139,14 @@
         <v>0</v>
       </c>
       <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
-      <c r="L1094" t="inlineStr"/>
+      <c r="K1094" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="L1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1094" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest PCM.xlsx
+++ b/BackTest/2020-01-12 BackTest PCM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3751,7 +3751,7 @@
         <v>-1540945.634581411</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1563145.634581411</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1567998.634581411</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1553268.634581411</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1544597.634581411</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1544597.634581411</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1556470.634581411</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1561160.634581411</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1577338.634581411</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1563639.634581411</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -7711,17 +7711,11 @@
         <v>-1613357.117881411</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>8.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7754,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7791,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7828,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7865,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7902,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7939,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7976,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8013,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8050,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8087,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8124,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8161,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8198,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8235,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8309,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8346,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8383,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8420,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8457,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8494,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8531,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8568,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8605,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8642,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8679,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8716,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8753,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8790,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8827,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8864,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8901,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8938,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8975,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9012,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9049,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9086,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9123,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9160,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9197,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9234,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9271,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9308,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9345,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9382,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9419,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9456,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9530,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9567,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9604,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9641,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9678,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9715,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9752,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9789,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9826,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9863,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9900,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9937,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9974,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10011,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10048,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10085,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10122,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10159,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10196,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10233,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10270,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10307,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10344,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10381,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10418,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10455,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10492,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10529,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10566,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10603,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10640,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10677,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10751,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10788,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10825,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10862,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10899,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10936,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10973,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11010,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11047,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11084,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11121,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11158,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11195,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11232,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11269,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11306,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11343,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11380,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11417,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11454,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11491,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11528,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11565,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11602,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11639,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11676,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11713,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11750,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11787,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11824,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11861,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11898,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11968,17 +11506,11 @@
         <v>-1636963.12218141</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12011,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12048,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12085,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12122,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12159,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12196,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12233,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12270,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12307,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12344,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12381,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12418,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12455,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12492,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12566,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12603,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12640,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12677,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12714,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12751,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12784,17 +12232,11 @@
         <v>-1610315.12218141</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>9.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12827,11 +12269,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12864,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12901,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12938,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12975,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13012,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13045,16 +12463,14 @@
         <v>-1545870.807281411</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
       <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
@@ -13080,7 +12496,7 @@
         <v>-1545870.807281411</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13113,7 +12529,7 @@
         <v>-1531881.807281411</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13146,7 +12562,7 @@
         <v>-1531881.807281411</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13179,7 +12595,7 @@
         <v>-1550175.807281411</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13212,7 +12628,7 @@
         <v>-1550175.807281411</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13245,7 +12661,7 @@
         <v>-1550175.807281411</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13278,7 +12694,7 @@
         <v>-1440681.615681411</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13311,7 +12727,7 @@
         <v>-1460735.615681411</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13344,7 +12760,7 @@
         <v>-1480255.615681411</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13377,7 +12793,7 @@
         <v>-1498696.615681411</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13410,7 +12826,7 @@
         <v>-1498696.615681411</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13443,7 +12859,7 @@
         <v>-1498696.615681411</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13707,7 +13123,7 @@
         <v>-1488082.041681411</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13740,7 +13156,7 @@
         <v>-1468063.041681411</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14235,7 +13651,7 @@
         <v>-1260537.804281411</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14268,7 +13684,7 @@
         <v>-1282509.545081411</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14301,7 +13717,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14334,7 +13750,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14367,7 +13783,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14400,7 +13816,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14433,7 +13849,7 @@
         <v>-1279271.89258141</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14466,7 +13882,7 @@
         <v>-1279271.89258141</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14499,7 +13915,7 @@
         <v>-1285236.811681411</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14532,7 +13948,7 @@
         <v>-1297479.811681411</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14565,7 +13981,7 @@
         <v>-1283590.811681411</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14598,7 +14014,7 @@
         <v>-1316890.904267314</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14631,7 +14047,7 @@
         <v>-1381216.791667314</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14664,7 +14080,7 @@
         <v>-1393619.791667314</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14697,7 +14113,7 @@
         <v>-1375564.791667314</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14730,7 +14146,7 @@
         <v>-1375564.791667314</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14763,7 +14179,7 @@
         <v>-1375564.791667314</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14796,7 +14212,7 @@
         <v>-1375564.791667314</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14829,7 +14245,7 @@
         <v>-1375564.791667314</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14862,7 +14278,7 @@
         <v>-1375564.791667314</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14895,7 +14311,7 @@
         <v>-1375564.791667314</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14928,7 +14344,7 @@
         <v>-1348307.791667314</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14961,7 +14377,7 @@
         <v>-1336341.791667314</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14994,7 +14410,7 @@
         <v>-1336341.791667314</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15027,7 +14443,7 @@
         <v>-1336341.791667314</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15060,7 +14476,7 @@
         <v>-1315960.791667314</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15093,7 +14509,7 @@
         <v>-1333043.791667314</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15126,7 +14542,7 @@
         <v>-1356204.791667314</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15159,7 +14575,7 @@
         <v>-1356204.791667314</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15192,7 +14608,7 @@
         <v>-1356204.791667314</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15225,7 +14641,7 @@
         <v>-1367270.791667314</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15258,7 +14674,7 @@
         <v>-1424487.258467314</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15291,7 +14707,7 @@
         <v>-2040352.258467314</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15324,7 +14740,7 @@
         <v>-2027599.258467314</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15357,7 +14773,7 @@
         <v>-2038281.258467314</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15390,7 +14806,7 @@
         <v>-1914899.398667314</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15423,7 +14839,7 @@
         <v>-1970528.117067314</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15555,7 +14971,7 @@
         <v>-2577595.745067314</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15588,7 +15004,7 @@
         <v>-2599616.104267314</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15621,7 +15037,7 @@
         <v>-2755073.756667314</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15654,7 +15070,7 @@
         <v>-2783069.710267314</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15687,7 +15103,7 @@
         <v>-2798943.710267314</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15720,7 +15136,7 @@
         <v>-2778206.710267314</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15753,7 +15169,7 @@
         <v>-2798043.854867314</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15786,7 +15202,7 @@
         <v>-2825632.803667314</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15819,7 +15235,7 @@
         <v>-2825632.803667314</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15852,7 +15268,7 @@
         <v>-2825632.803667314</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15885,7 +15301,7 @@
         <v>-2899810.904867314</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15918,7 +15334,7 @@
         <v>-2878503.904867314</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15951,7 +15367,7 @@
         <v>-2878503.904867314</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15984,7 +15400,7 @@
         <v>-2853974.904867314</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16017,7 +15433,7 @@
         <v>-3024989.622967314</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -18030,7 +17446,7 @@
         <v>-3196251.463267315</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18063,7 +17479,7 @@
         <v>-3211925.463267315</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -20241,11 +19657,17 @@
         <v>-3550817.138567314</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20274,11 +19696,17 @@
         <v>-3533249.138567314</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>8.859999999999999</v>
+      </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20307,11 +19735,17 @@
         <v>-3557761.138567314</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>8.869999999999999</v>
+      </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20340,7 +19774,7 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I587" t="n">
         <v>8.859999999999999</v>
@@ -20348,7 +19782,7 @@
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L587" t="n">
@@ -20379,7 +19813,7 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I588" t="n">
         <v>8.880000000000001</v>
@@ -20418,7 +19852,7 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>8.880000000000001</v>
@@ -20457,7 +19891,7 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I590" t="n">
         <v>8.880000000000001</v>
@@ -20496,7 +19930,7 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I591" t="n">
         <v>8.880000000000001</v>
@@ -20535,7 +19969,7 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>8.880000000000001</v>
@@ -20611,11 +20045,9 @@
         <v>-3557055.138567314</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
-      </c>
-      <c r="I594" t="n">
-        <v>8.880000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -20650,11 +20082,9 @@
         <v>-3557055.138567314</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
-      </c>
-      <c r="I595" t="n">
-        <v>8.869999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -20948,11 +20378,9 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
-      </c>
-      <c r="I603" t="n">
-        <v>8.869999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -20987,11 +20415,9 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
-      </c>
-      <c r="I604" t="n">
-        <v>8.880000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -21026,11 +20452,9 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
-      </c>
-      <c r="I605" t="n">
-        <v>8.880000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -21065,11 +20489,9 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
-      </c>
-      <c r="I606" t="n">
-        <v>8.880000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -21807,11 +21229,9 @@
         <v>-3534338.609667315</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
-      </c>
-      <c r="I626" t="n">
-        <v>9.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -21846,11 +21266,9 @@
         <v>-3516544.609667315</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
-      </c>
-      <c r="I627" t="n">
-        <v>9.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21885,11 +21303,9 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
-      </c>
-      <c r="I628" t="n">
-        <v>9.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -22072,11 +21488,9 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
-      </c>
-      <c r="I633" t="n">
-        <v>9.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -22111,11 +21525,9 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
-      </c>
-      <c r="I634" t="n">
-        <v>9.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -22150,11 +21562,9 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
-      </c>
-      <c r="I635" t="n">
-        <v>9.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -22411,11 +21821,9 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
-      </c>
-      <c r="I642" t="n">
-        <v>9.029999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -22561,11 +21969,9 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
-      </c>
-      <c r="I646" t="n">
-        <v>9.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -22600,11 +22006,9 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
-      </c>
-      <c r="I647" t="n">
-        <v>9.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -22639,11 +22043,9 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
-      </c>
-      <c r="I648" t="n">
-        <v>9.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -22678,11 +22080,9 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
-      </c>
-      <c r="I649" t="n">
-        <v>9.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -23235,11 +22635,9 @@
         <v>-3488368.943067315</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
-      </c>
-      <c r="I664" t="n">
-        <v>9.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -23274,11 +22672,9 @@
         <v>-3488368.943067315</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
-      </c>
-      <c r="I665" t="n">
-        <v>9.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
@@ -23313,11 +22709,9 @@
         <v>-3488368.943067315</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
-      </c>
-      <c r="I666" t="n">
-        <v>9.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -38263,9 +37657,11 @@
         <v>-4562367.601397772</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1070" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
@@ -38300,9 +37696,11 @@
         <v>-4562367.601397772</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>8.93</v>
+      </c>
       <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
@@ -38337,9 +37735,11 @@
         <v>-4574763.601397772</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>8.93</v>
+      </c>
       <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
@@ -38374,9 +37774,11 @@
         <v>-4574763.601397772</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>8.92</v>
+      </c>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
@@ -38411,9 +37813,11 @@
         <v>-4555181.601397772</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>8.92</v>
+      </c>
       <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
@@ -38448,9 +37852,11 @@
         <v>-4555181.601397772</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>8.93</v>
+      </c>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
@@ -38485,9 +37891,11 @@
         <v>-4533025.601397772</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>8.93</v>
+      </c>
       <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
@@ -38522,9 +37930,11 @@
         <v>-4533025.601397772</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>8.94</v>
+      </c>
       <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
@@ -38559,9 +37969,11 @@
         <v>-4533025.601397772</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>8.94</v>
+      </c>
       <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
@@ -40187,11 +39599,9 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1122" t="n">
-        <v>8.949999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
@@ -40226,11 +39636,9 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1123" t="n">
-        <v>8.949999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
@@ -41079,11 +40487,9 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1146" t="n">
-        <v>8.960000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
@@ -41118,11 +40524,9 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1147" t="n">
-        <v>8.960000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr">
         <is>
@@ -41342,11 +40746,9 @@
         <v>-4486198.205673512</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1153" t="n">
-        <v>8.960000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
@@ -41418,11 +40820,9 @@
         <v>-4470479.205673512</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1155" t="n">
-        <v>8.970000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
@@ -41494,11 +40894,9 @@
         <v>-4470479.205673512</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1157" t="n">
-        <v>8.970000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
@@ -41533,11 +40931,9 @@
         <v>-4450711.205673512</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1158" t="n">
-        <v>8.970000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
@@ -41572,11 +40968,9 @@
         <v>-4450711.205673512</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1159" t="n">
-        <v>8.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
@@ -41611,11 +41005,9 @@
         <v>-4462013.205673512</v>
       </c>
       <c r="H1160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1160" t="n">
-        <v>8.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
@@ -41650,11 +41042,9 @@
         <v>-4449593.205673512</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1161" t="n">
-        <v>8.970000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
@@ -41689,11 +41079,9 @@
         <v>-4449593.205673512</v>
       </c>
       <c r="H1162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1162" t="n">
-        <v>8.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
@@ -41728,11 +41116,9 @@
         <v>-4449593.205673512</v>
       </c>
       <c r="H1163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1163" t="n">
-        <v>8.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr">
         <is>
@@ -41745,6 +41131,6 @@
       <c r="M1163" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest PCM.xlsx
+++ b/BackTest/2020-01-12 BackTest PCM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2695,7 +2695,7 @@
         <v>-1623542.634581411</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1601560.634581411</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1601560.634581411</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1612620.634581411</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1612620.634581411</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1589942.634581411</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1607245.634581411</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1607245.634581411</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-1279271.89258141</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-1279271.89258141</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-1285236.811681411</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-1297479.811681411</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-1283590.811681411</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-1316890.904267314</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-1381216.791667314</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-1393619.791667314</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-1375564.791667314</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-1375564.791667314</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-1375564.791667314</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-1375564.791667314</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-1375564.791667314</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-1375564.791667314</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-1375564.791667314</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-1348307.791667314</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-1336341.791667314</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-1336341.791667314</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-1336341.791667314</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-1315960.791667314</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-1333043.791667314</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-1356204.791667314</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-1356204.791667314</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-1356204.791667314</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-1367270.791667314</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-2040352.258467314</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-2038281.258467314</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-1914899.398667314</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-2577595.745067314</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-2599616.104267314</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-2755073.756667314</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-2783069.710267314</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-2798943.710267314</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-2778206.710267314</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-2798043.854867314</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-2825632.803667314</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-2825632.803667314</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-2825632.803667314</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-2899810.904867314</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-2878503.904867314</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-2878503.904867314</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-2853974.904867314</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-3024989.622967314</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -19393,10 +19393,14 @@
         <v>-3527165.138567314</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J576" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
@@ -19426,11 +19430,19 @@
         <v>-3544851.138567314</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J577" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19459,11 +19471,19 @@
         <v>-3544851.138567314</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J578" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19492,11 +19512,19 @@
         <v>-3544851.138567314</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J579" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19528,8 +19556,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19561,8 +19595,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19594,8 +19634,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19627,8 +19673,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19657,15 +19709,15 @@
         <v>-3550817.138567314</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L584" t="n">
@@ -19696,12 +19748,12 @@
         <v>-3533249.138567314</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="J585" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19735,12 +19787,12 @@
         <v>-3557761.138567314</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="J586" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19774,12 +19826,12 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="J587" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19813,12 +19865,12 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19857,7 +19909,9 @@
       <c r="I589" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19891,12 +19945,12 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19930,12 +19984,12 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19969,12 +20023,12 @@
         <v>-3535274.138567314</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20011,7 +20065,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20048,7 +20104,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20085,7 +20143,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20122,7 +20182,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20159,7 +20221,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20196,7 +20260,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20233,7 +20299,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20270,7 +20338,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20307,7 +20377,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20344,7 +20416,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20381,7 +20455,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20418,7 +20494,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20455,7 +20533,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20492,7 +20572,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20529,7 +20611,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20566,7 +20650,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20603,7 +20689,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20640,7 +20728,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20677,7 +20767,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20714,7 +20806,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20751,7 +20845,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20788,7 +20884,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20825,7 +20923,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20862,7 +20962,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20899,7 +21001,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20936,7 +21040,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20973,7 +21079,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21010,7 +21118,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21047,7 +21157,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21084,7 +21196,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21121,7 +21235,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21158,7 +21274,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21195,7 +21313,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21232,7 +21352,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21269,7 +21391,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21306,7 +21430,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21343,7 +21469,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21380,7 +21508,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21417,7 +21547,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21454,7 +21586,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21488,17 +21622,19 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L633" t="n">
-        <v>1</v>
+        <v>1.00963963963964</v>
       </c>
       <c r="M633" t="inlineStr"/>
     </row>
@@ -21525,15 +21661,11 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21562,15 +21694,11 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21599,15 +21727,11 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21636,15 +21760,11 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21673,15 +21793,11 @@
         <v>-3511781.609667315</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21710,15 +21826,11 @@
         <v>-3489440.609667315</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21747,15 +21859,11 @@
         <v>-3505668.609667315</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21784,15 +21892,11 @@
         <v>-3478015.609667315</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21821,15 +21925,11 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21858,15 +21958,11 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21895,15 +21991,11 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21932,15 +22024,11 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21969,15 +22057,11 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22006,15 +22090,11 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22043,15 +22123,11 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22080,15 +22156,11 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22117,15 +22189,11 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22154,15 +22222,11 @@
         <v>-3513031.943067315</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22191,15 +22255,11 @@
         <v>-3501755.943067315</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22228,15 +22288,11 @@
         <v>-3481177.943067315</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22265,15 +22321,11 @@
         <v>-3481177.943067315</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22302,15 +22354,11 @@
         <v>-3481177.943067315</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22343,11 +22391,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22380,11 +22424,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22417,11 +22457,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22454,11 +22490,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22491,11 +22523,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22528,11 +22556,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22565,11 +22589,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22602,11 +22622,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22639,11 +22655,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22676,11 +22688,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22713,11 +22721,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22750,11 +22754,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22787,11 +22787,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22824,11 +22820,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22861,11 +22853,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22898,11 +22886,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22935,11 +22919,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22972,11 +22952,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23009,11 +22985,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23046,11 +23018,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23083,11 +23051,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23120,11 +23084,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23157,11 +23117,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23194,11 +23150,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23231,11 +23183,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23268,11 +23216,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23305,11 +23249,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23342,11 +23282,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23379,11 +23315,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23416,11 +23348,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23453,11 +23381,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23490,11 +23414,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23527,11 +23447,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23564,11 +23480,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23601,11 +23513,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23638,11 +23546,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23675,11 +23579,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23712,11 +23612,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23749,11 +23645,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23786,11 +23678,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23823,11 +23711,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23860,11 +23744,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23897,11 +23777,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23934,11 +23810,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23971,11 +23843,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24008,11 +23876,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24045,11 +23909,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24082,11 +23942,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24119,11 +23975,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24156,11 +24008,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24193,11 +24041,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24230,11 +24074,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24267,11 +24107,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24304,11 +24140,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24341,11 +24173,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24378,11 +24206,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24415,11 +24239,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24452,11 +24272,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24489,11 +24305,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24526,11 +24338,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24563,11 +24371,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24600,11 +24404,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24637,11 +24437,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24674,11 +24470,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24711,11 +24503,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24748,11 +24536,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24785,11 +24569,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24822,11 +24602,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24859,11 +24635,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24896,11 +24668,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24933,11 +24701,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24970,11 +24734,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25007,11 +24767,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25044,11 +24800,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25081,11 +24833,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25118,11 +24866,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25155,11 +24899,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25192,11 +24932,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25229,11 +24965,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25266,11 +24998,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25303,11 +25031,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25340,11 +25064,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25377,11 +25097,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25414,11 +25130,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25451,11 +25163,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25488,11 +25196,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25525,11 +25229,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25562,11 +25262,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25599,11 +25295,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25636,11 +25328,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25673,11 +25361,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25710,11 +25394,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25747,11 +25427,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25784,11 +25460,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25821,11 +25493,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25858,11 +25526,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25895,11 +25559,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25932,11 +25592,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25969,11 +25625,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26006,11 +25658,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26043,11 +25691,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26080,11 +25724,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26117,11 +25757,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26154,11 +25790,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26191,11 +25823,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26228,11 +25856,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26265,11 +25889,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26302,11 +25922,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26339,11 +25955,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26376,11 +25988,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26413,11 +26021,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26450,11 +26054,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26487,11 +26087,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26524,11 +26120,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26561,11 +26153,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26598,11 +26186,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26635,11 +26219,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26672,11 +26252,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26709,11 +26285,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26746,11 +26318,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26783,11 +26351,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26820,11 +26384,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26857,11 +26417,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26894,11 +26450,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26931,11 +26483,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26968,11 +26516,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27005,11 +26549,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27042,11 +26582,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27079,11 +26615,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27116,11 +26648,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27153,11 +26681,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27190,11 +26714,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27227,11 +26747,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27264,11 +26780,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27301,11 +26813,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27338,11 +26846,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27375,11 +26879,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27412,11 +26912,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27449,11 +26945,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27486,11 +26978,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27523,11 +27011,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27560,11 +27044,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27597,11 +27077,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27634,11 +27110,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27671,11 +27143,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27708,11 +27176,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27745,11 +27209,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27782,11 +27242,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27819,11 +27275,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27856,11 +27308,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27893,11 +27341,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27930,11 +27374,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27967,11 +27407,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28004,11 +27440,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28041,11 +27473,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28078,11 +27506,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28115,11 +27539,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28152,11 +27572,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28189,11 +27605,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28226,11 +27638,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28263,11 +27671,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28300,11 +27704,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28337,11 +27737,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28374,11 +27770,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28411,11 +27803,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28448,11 +27836,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28485,11 +27869,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28522,11 +27902,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28559,11 +27935,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28596,11 +27968,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28633,11 +28001,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28670,11 +28034,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28707,11 +28067,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28744,11 +28100,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28781,11 +28133,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28818,11 +28166,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28855,11 +28199,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28892,11 +28232,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28929,11 +28265,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28966,11 +28298,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29003,11 +28331,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29036,15 +28360,11 @@
         <v>-3800723.713897773</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29073,15 +28393,11 @@
         <v>-3787310.713897773</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29110,15 +28426,11 @@
         <v>-3787310.713897773</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29147,15 +28459,11 @@
         <v>-3787310.713897773</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29184,15 +28492,11 @@
         <v>-3801586.713897773</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29225,11 +28529,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29262,11 +28562,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29295,15 +28591,11 @@
         <v>-3781634.713897773</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29336,11 +28628,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29373,11 +28661,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29410,11 +28694,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29447,11 +28727,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29484,11 +28760,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29521,11 +28793,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29558,11 +28826,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -29595,11 +28859,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29632,11 +28892,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29669,11 +28925,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29706,11 +28958,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29743,11 +28991,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29780,11 +29024,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29817,11 +29057,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29854,11 +29090,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29891,11 +29123,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29928,11 +29156,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29965,11 +29189,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30002,11 +29222,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30039,11 +29255,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30076,11 +29288,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30113,11 +29321,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30150,11 +29354,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30187,11 +29387,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30224,11 +29420,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30261,11 +29453,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30298,11 +29486,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30331,15 +29515,11 @@
         <v>-3738071.112197773</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30372,11 +29552,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30409,11 +29585,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30446,11 +29618,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30483,11 +29651,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30520,11 +29684,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30557,11 +29717,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30594,11 +29750,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30631,11 +29783,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30668,11 +29816,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30705,11 +29849,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30742,11 +29882,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30779,11 +29915,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30816,11 +29948,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30853,11 +29981,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30890,11 +30014,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30927,11 +30047,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30964,11 +30080,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31001,11 +30113,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31038,11 +30146,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31075,11 +30179,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31112,11 +30212,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31149,11 +30245,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31186,11 +30278,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31223,11 +30311,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31260,11 +30344,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31297,11 +30377,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31334,11 +30410,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31371,11 +30443,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31408,11 +30476,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31445,11 +30509,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31482,11 +30542,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31519,11 +30575,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31556,11 +30608,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31593,11 +30641,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31630,11 +30674,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31667,11 +30707,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31704,11 +30740,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31741,11 +30773,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31778,11 +30806,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31815,11 +30839,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31852,11 +30872,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31889,11 +30905,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31926,11 +30938,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31963,11 +30971,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -32000,11 +31004,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -32037,11 +31037,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -32074,11 +31070,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -32111,11 +31103,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -32148,11 +31136,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -32185,11 +31169,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -32222,11 +31202,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32259,11 +31235,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32296,11 +31268,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32333,11 +31301,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32370,11 +31334,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32407,11 +31367,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32444,11 +31400,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32481,11 +31433,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32518,11 +31466,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32555,11 +31499,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -32592,11 +31532,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -32629,11 +31565,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -32666,11 +31598,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -32703,11 +31631,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -32740,11 +31664,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -32777,11 +31697,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -32814,11 +31730,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -32851,11 +31763,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -32888,11 +31796,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -32925,11 +31829,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -32962,11 +31862,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -32999,11 +31895,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -33036,11 +31928,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -33073,11 +31961,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -33110,11 +31994,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -33147,11 +32027,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -33184,11 +32060,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -33221,11 +32093,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33258,11 +32126,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33295,11 +32159,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33332,11 +32192,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33369,11 +32225,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33406,11 +32258,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33443,11 +32291,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33480,11 +32324,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33517,11 +32357,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33554,11 +32390,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33591,11 +32423,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33628,11 +32456,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33665,11 +32489,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33702,11 +32522,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -33739,11 +32555,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -33776,11 +32588,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33813,11 +32621,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33850,11 +32654,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33887,11 +32687,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33924,11 +32720,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33961,11 +32753,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33998,11 +32786,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -34035,11 +32819,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -34072,11 +32852,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -34109,11 +32885,7 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -34146,11 +32918,7 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -34183,11 +32951,7 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -34220,11 +32984,7 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -34257,11 +33017,7 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34294,11 +33050,7 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -34331,11 +33083,7 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -34368,11 +33116,7 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -34405,11 +33149,7 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34442,11 +33182,7 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34479,11 +33215,7 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34516,11 +33248,7 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34553,11 +33281,7 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34590,11 +33314,7 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34627,11 +33347,7 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34664,11 +33380,7 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34701,11 +33413,7 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34738,11 +33446,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34775,11 +33479,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34812,11 +33512,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34849,11 +33545,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34886,11 +33578,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34923,11 +33611,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34960,11 +33644,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34997,11 +33677,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -35034,11 +33710,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -35071,11 +33743,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -35108,11 +33776,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -35145,11 +33809,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -35182,11 +33842,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -35219,11 +33875,7 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -35256,11 +33908,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -35293,11 +33941,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -35330,11 +33974,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -35367,11 +34007,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -35404,11 +34040,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -35441,11 +34073,7 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -35478,11 +34106,7 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -35515,11 +34139,7 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -35552,11 +34172,7 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -35589,11 +34205,7 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -35626,11 +34238,7 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35663,11 +34271,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35700,11 +34304,7 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35737,11 +34337,7 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35774,11 +34370,7 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35811,11 +34403,7 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35848,11 +34436,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35885,11 +34469,7 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35922,11 +34502,7 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35959,11 +34535,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35996,11 +34568,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -36033,11 +34601,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -36070,11 +34634,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -36107,11 +34667,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -36144,11 +34700,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -36181,11 +34733,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -36218,11 +34766,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -36255,11 +34799,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -36292,11 +34832,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -36329,11 +34865,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -36366,11 +34898,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -36403,11 +34931,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -36440,11 +34964,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -36477,11 +34997,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -36514,11 +35030,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -36551,11 +35063,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -36588,11 +35096,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -36625,11 +35129,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -36662,11 +35162,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -36699,11 +35195,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -36736,11 +35228,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -36773,11 +35261,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -36810,11 +35294,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -36847,11 +35327,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -36884,11 +35360,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -36921,11 +35393,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36958,11 +35426,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36995,11 +35459,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -37032,11 +35492,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -37069,11 +35525,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -37106,11 +35558,7 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -37143,11 +35591,7 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1056" t="inlineStr"/>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -37180,11 +35624,7 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1057" t="inlineStr"/>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -37217,11 +35657,7 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1058" t="inlineStr"/>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -37254,11 +35690,7 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1059" t="inlineStr"/>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -37291,11 +35723,7 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1060" t="inlineStr"/>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -37328,11 +35756,7 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1061" t="inlineStr"/>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -37365,11 +35789,7 @@
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1062" t="inlineStr"/>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -37402,11 +35822,7 @@
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1063" t="inlineStr"/>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -37439,11 +35855,7 @@
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1064" t="inlineStr"/>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -37476,11 +35888,7 @@
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1065" t="inlineStr"/>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -37513,11 +35921,7 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1066" t="inlineStr"/>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -37550,11 +35954,7 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1067" t="inlineStr"/>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -37587,11 +35987,7 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1068" t="inlineStr"/>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -37624,11 +36020,7 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1069" t="inlineStr"/>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -37657,17 +36049,11 @@
         <v>-4562367.601397772</v>
       </c>
       <c r="H1070" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1070" t="n">
-        <v>8.949999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1070" t="inlineStr"/>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -37696,17 +36082,11 @@
         <v>-4562367.601397772</v>
       </c>
       <c r="H1071" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1071" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -37735,17 +36115,11 @@
         <v>-4574763.601397772</v>
       </c>
       <c r="H1072" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1072" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1072" t="inlineStr"/>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -37774,17 +36148,11 @@
         <v>-4574763.601397772</v>
       </c>
       <c r="H1073" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1073" t="n">
-        <v>8.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1073" t="inlineStr"/>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -37813,17 +36181,11 @@
         <v>-4555181.601397772</v>
       </c>
       <c r="H1074" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1074" t="n">
-        <v>8.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1074" t="inlineStr"/>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -37852,17 +36214,11 @@
         <v>-4555181.601397772</v>
       </c>
       <c r="H1075" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1075" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1075" t="inlineStr"/>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -37891,17 +36247,11 @@
         <v>-4533025.601397772</v>
       </c>
       <c r="H1076" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1076" t="n">
-        <v>8.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1076" t="inlineStr"/>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -37930,17 +36280,11 @@
         <v>-4533025.601397772</v>
       </c>
       <c r="H1077" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1077" t="n">
-        <v>8.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1077" t="inlineStr"/>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -37969,17 +36313,11 @@
         <v>-4533025.601397772</v>
       </c>
       <c r="H1078" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1078" t="n">
-        <v>8.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1078" t="inlineStr"/>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -38012,11 +36350,7 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1079" t="inlineStr"/>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -38049,11 +36383,7 @@
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1080" t="inlineStr"/>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -38086,11 +36416,7 @@
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1081" t="inlineStr"/>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -38123,11 +36449,7 @@
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1082" t="inlineStr"/>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -38160,11 +36482,7 @@
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1083" t="inlineStr"/>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -38197,11 +36515,7 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1084" t="inlineStr"/>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -38234,11 +36548,7 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1085" t="inlineStr"/>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -38271,11 +36581,7 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1086" t="inlineStr"/>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -38304,13 +36610,15 @@
         <v>-4523213.861897772</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>8.94</v>
+      </c>
       <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1087" t="n">
@@ -38341,9 +36649,11 @@
         <v>-4540637.861897772</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
@@ -38378,9 +36688,11 @@
         <v>-4517568.861897772</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>8.94</v>
+      </c>
       <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
@@ -38415,9 +36727,11 @@
         <v>-4539681.861897772</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
@@ -38452,9 +36766,11 @@
         <v>-4539681.861897772</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
@@ -38489,9 +36805,11 @@
         <v>-4562053.861897772</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
@@ -38526,9 +36844,11 @@
         <v>-4536886.861897772</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>8.933999999999999</v>
+      </c>
       <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
@@ -38637,9 +36957,11 @@
         <v>-4490899.984297772</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>8.946</v>
+      </c>
       <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
@@ -38674,9 +36996,11 @@
         <v>-4490843.984297772</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>8.94</v>
+      </c>
       <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
@@ -41131,6 +39455,6 @@
       <c r="M1163" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest PCM.xlsx
+++ b/BackTest/2020-01-12 BackTest PCM.xlsx
@@ -2695,7 +2695,7 @@
         <v>-1623542.634581411</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1601560.634581411</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1601560.634581411</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1612620.634581411</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1612620.634581411</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1589942.634581411</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1607245.634581411</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1607245.634581411</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-1260537.804281411</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-1282509.545081411</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-1278001.89258141</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-1279271.89258141</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-1279271.89258141</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-1285236.811681411</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-1297479.811681411</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-1283590.811681411</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-1316890.904267314</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-1381216.791667314</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-1336341.791667314</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-1315960.791667314</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-1333043.791667314</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-1356204.791667314</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-1356204.791667314</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-1356204.791667314</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-1367270.791667314</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-1424487.258467314</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-2040352.258467314</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-2027599.258467314</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -19393,14 +19393,10 @@
         <v>-3527165.138567314</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J576" t="n">
-        <v>8.880000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
@@ -19430,1039 +19426,881 @@
         <v>-3544851.138567314</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="n">
+        <v>1</v>
+      </c>
+      <c r="M577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="C578" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D578" t="n">
+        <v>9.087999999999999</v>
+      </c>
+      <c r="E578" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="F578" t="n">
+        <v>13393</v>
+      </c>
+      <c r="G578" t="n">
+        <v>-3544851.138567314</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="n">
+        <v>1</v>
+      </c>
+      <c r="M578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>9.086</v>
+      </c>
+      <c r="C579" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D579" t="n">
+        <v>9.086</v>
+      </c>
+      <c r="E579" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F579" t="n">
+        <v>11995</v>
+      </c>
+      <c r="G579" t="n">
+        <v>-3544851.138567314</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="n">
+        <v>1</v>
+      </c>
+      <c r="M579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="C580" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D580" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E580" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="F580" t="n">
+        <v>17952</v>
+      </c>
+      <c r="G580" t="n">
+        <v>-3544851.138567314</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="n">
+        <v>1</v>
+      </c>
+      <c r="M580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="C581" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D581" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E581" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="F581" t="n">
+        <v>24154</v>
+      </c>
+      <c r="G581" t="n">
+        <v>-3544851.138567314</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="n">
+        <v>1</v>
+      </c>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="C582" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D582" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E582" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="F582" t="n">
+        <v>19332</v>
+      </c>
+      <c r="G582" t="n">
+        <v>-3544851.138567314</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C583" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="J577" t="n">
+      <c r="D583" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="K577" t="inlineStr">
+      <c r="E583" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F583" t="n">
+        <v>14068</v>
+      </c>
+      <c r="G583" t="n">
+        <v>-3530783.138567314</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C584" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="D584" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E584" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="F584" t="n">
+        <v>20034</v>
+      </c>
+      <c r="G584" t="n">
+        <v>-3550817.138567314</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="C585" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D585" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E585" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="F585" t="n">
+        <v>17568</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-3533249.138567314</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C586" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="D586" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E586" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="F586" t="n">
+        <v>24512</v>
+      </c>
+      <c r="G586" t="n">
+        <v>-3557761.138567314</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="C587" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D587" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E587" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="F587" t="n">
+        <v>22487</v>
+      </c>
+      <c r="G587" t="n">
+        <v>-3535274.138567314</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C588" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D588" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E588" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F588" t="n">
+        <v>17511</v>
+      </c>
+      <c r="G588" t="n">
+        <v>-3535274.138567314</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="n">
+        <v>1</v>
+      </c>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C589" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D589" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E589" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F589" t="n">
+        <v>16496</v>
+      </c>
+      <c r="G589" t="n">
+        <v>-3535274.138567314</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="n">
+        <v>1</v>
+      </c>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="C590" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D590" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E590" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F590" t="n">
+        <v>12540</v>
+      </c>
+      <c r="G590" t="n">
+        <v>-3535274.138567314</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C591" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D591" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E591" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F591" t="n">
+        <v>15637</v>
+      </c>
+      <c r="G591" t="n">
+        <v>-3535274.138567314</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="C592" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D592" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E592" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F592" t="n">
+        <v>17462</v>
+      </c>
+      <c r="G592" t="n">
+        <v>-3535274.138567314</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="C593" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D593" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E593" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F593" t="n">
+        <v>19314</v>
+      </c>
+      <c r="G593" t="n">
+        <v>-3535274.138567314</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="C594" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D594" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E594" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F594" t="n">
+        <v>21781</v>
+      </c>
+      <c r="G594" t="n">
+        <v>-3557055.138567314</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C595" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D595" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E595" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F595" t="n">
+        <v>17885</v>
+      </c>
+      <c r="G595" t="n">
+        <v>-3557055.138567314</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C596" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="D596" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E596" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="F596" t="n">
+        <v>16984</v>
+      </c>
+      <c r="G596" t="n">
+        <v>-3574039.138567314</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="C597" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="D597" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="E597" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="F597" t="n">
+        <v>18669</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-3574039.138567314</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C598" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D598" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E598" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F598" t="n">
+        <v>13683</v>
+      </c>
+      <c r="G598" t="n">
+        <v>-3560356.138567314</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C599" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D599" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E599" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F599" t="n">
+        <v>18248</v>
+      </c>
+      <c r="G599" t="n">
+        <v>-3560356.138567314</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C600" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D600" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E600" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F600" t="n">
+        <v>21135</v>
+      </c>
+      <c r="G600" t="n">
+        <v>-3560356.138567314</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="n">
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C601" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D601" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E601" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F601" t="n">
+        <v>17466</v>
+      </c>
+      <c r="G601" t="n">
+        <v>-3560356.138567314</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="C602" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="D602" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="E602" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="F602" t="n">
+        <v>26607</v>
+      </c>
+      <c r="G602" t="n">
+        <v>-3560356.138567314</v>
+      </c>
+      <c r="H602" t="n">
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J602" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="n">
+        <v>1</v>
+      </c>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="C603" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D603" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E603" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="F603" t="n">
+        <v>17065</v>
+      </c>
+      <c r="G603" t="n">
+        <v>-3543291.138567314</v>
+      </c>
+      <c r="H603" t="n">
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J603" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="K603" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L577" t="n">
-        <v>1</v>
-      </c>
-      <c r="M577" t="inlineStr"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="C578" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D578" t="n">
-        <v>9.087999999999999</v>
-      </c>
-      <c r="E578" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="F578" t="n">
-        <v>13393</v>
-      </c>
-      <c r="G578" t="n">
-        <v>-3544851.138567314</v>
-      </c>
-      <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="J578" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L578" t="n">
-        <v>1</v>
-      </c>
-      <c r="M578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="n">
-        <v>9.086</v>
-      </c>
-      <c r="C579" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D579" t="n">
-        <v>9.086</v>
-      </c>
-      <c r="E579" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F579" t="n">
-        <v>11995</v>
-      </c>
-      <c r="G579" t="n">
-        <v>-3544851.138567314</v>
-      </c>
-      <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="J579" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L579" t="n">
-        <v>1</v>
-      </c>
-      <c r="M579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="C580" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D580" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E580" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="F580" t="n">
-        <v>17952</v>
-      </c>
-      <c r="G580" t="n">
-        <v>-3544851.138567314</v>
-      </c>
-      <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L580" t="n">
-        <v>1</v>
-      </c>
-      <c r="M580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="C581" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D581" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E581" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="F581" t="n">
-        <v>24154</v>
-      </c>
-      <c r="G581" t="n">
-        <v>-3544851.138567314</v>
-      </c>
-      <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L581" t="n">
-        <v>1</v>
-      </c>
-      <c r="M581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="C582" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D582" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E582" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="F582" t="n">
-        <v>19332</v>
-      </c>
-      <c r="G582" t="n">
-        <v>-3544851.138567314</v>
-      </c>
-      <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C583" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D583" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E583" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F583" t="n">
-        <v>14068</v>
-      </c>
-      <c r="G583" t="n">
-        <v>-3530783.138567314</v>
-      </c>
-      <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C584" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="D584" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E584" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="F584" t="n">
-        <v>20034</v>
-      </c>
-      <c r="G584" t="n">
-        <v>-3550817.138567314</v>
-      </c>
-      <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="C585" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D585" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E585" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="F585" t="n">
-        <v>17568</v>
-      </c>
-      <c r="G585" t="n">
-        <v>-3533249.138567314</v>
-      </c>
-      <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C586" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="D586" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E586" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="F586" t="n">
-        <v>24512</v>
-      </c>
-      <c r="G586" t="n">
-        <v>-3557761.138567314</v>
-      </c>
-      <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="C587" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D587" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E587" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="F587" t="n">
-        <v>22487</v>
-      </c>
-      <c r="G587" t="n">
-        <v>-3535274.138567314</v>
-      </c>
-      <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C588" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D588" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E588" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F588" t="n">
-        <v>17511</v>
-      </c>
-      <c r="G588" t="n">
-        <v>-3535274.138567314</v>
-      </c>
-      <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L588" t="n">
-        <v>1</v>
-      </c>
-      <c r="M588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C589" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D589" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E589" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F589" t="n">
-        <v>16496</v>
-      </c>
-      <c r="G589" t="n">
-        <v>-3535274.138567314</v>
-      </c>
-      <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J589" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L589" t="n">
-        <v>1</v>
-      </c>
-      <c r="M589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="C590" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D590" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E590" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F590" t="n">
-        <v>12540</v>
-      </c>
-      <c r="G590" t="n">
-        <v>-3535274.138567314</v>
-      </c>
-      <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
-      <c r="M590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C591" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D591" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E591" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F591" t="n">
-        <v>15637</v>
-      </c>
-      <c r="G591" t="n">
-        <v>-3535274.138567314</v>
-      </c>
-      <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="C592" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D592" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E592" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F592" t="n">
-        <v>17462</v>
-      </c>
-      <c r="G592" t="n">
-        <v>-3535274.138567314</v>
-      </c>
-      <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="C593" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D593" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E593" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F593" t="n">
-        <v>19314</v>
-      </c>
-      <c r="G593" t="n">
-        <v>-3535274.138567314</v>
-      </c>
-      <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="C594" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D594" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E594" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F594" t="n">
-        <v>21781</v>
-      </c>
-      <c r="G594" t="n">
-        <v>-3557055.138567314</v>
-      </c>
-      <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C595" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D595" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E595" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F595" t="n">
-        <v>17885</v>
-      </c>
-      <c r="G595" t="n">
-        <v>-3557055.138567314</v>
-      </c>
-      <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C596" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="D596" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E596" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="F596" t="n">
-        <v>16984</v>
-      </c>
-      <c r="G596" t="n">
-        <v>-3574039.138567314</v>
-      </c>
-      <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="C597" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="D597" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="E597" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="F597" t="n">
-        <v>18669</v>
-      </c>
-      <c r="G597" t="n">
-        <v>-3574039.138567314</v>
-      </c>
-      <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C598" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D598" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E598" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F598" t="n">
-        <v>13683</v>
-      </c>
-      <c r="G598" t="n">
-        <v>-3560356.138567314</v>
-      </c>
-      <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C599" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D599" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E599" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F599" t="n">
-        <v>18248</v>
-      </c>
-      <c r="G599" t="n">
-        <v>-3560356.138567314</v>
-      </c>
-      <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C600" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D600" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E600" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F600" t="n">
-        <v>21135</v>
-      </c>
-      <c r="G600" t="n">
-        <v>-3560356.138567314</v>
-      </c>
-      <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C601" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D601" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E601" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F601" t="n">
-        <v>17466</v>
-      </c>
-      <c r="G601" t="n">
-        <v>-3560356.138567314</v>
-      </c>
-      <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
-      <c r="M601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="C602" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D602" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E602" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F602" t="n">
-        <v>26607</v>
-      </c>
-      <c r="G602" t="n">
-        <v>-3560356.138567314</v>
-      </c>
-      <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L602" t="n">
-        <v>1</v>
-      </c>
-      <c r="M602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="C603" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="D603" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="E603" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="F603" t="n">
-        <v>17065</v>
-      </c>
-      <c r="G603" t="n">
-        <v>-3543291.138567314</v>
-      </c>
-      <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20491,15 +20329,17 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="J604" t="n">
-        <v>8.880000000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L604" t="n">
@@ -20530,17 +20370,15 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="J605" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20569,15 +20407,17 @@
         <v>-3543291.138567314</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="J606" t="n">
         <v>8.880000000000001</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L606" t="n">
@@ -20616,7 +20456,7 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L607" t="n">
@@ -20647,17 +20487,15 @@
         <v>-3530032.609667315</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="J608" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20694,7 +20532,7 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L609" t="n">
@@ -20733,7 +20571,7 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L610" t="n">
@@ -20767,14 +20605,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20806,14 +20638,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20845,14 +20671,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20884,14 +20704,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20923,14 +20737,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20962,14 +20770,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21001,14 +20803,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21040,14 +20836,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21079,14 +20869,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21118,14 +20902,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21157,14 +20935,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21196,14 +20968,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21235,14 +21001,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21274,14 +21034,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21313,14 +21067,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21352,14 +21100,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21391,14 +21133,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21430,14 +21166,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21469,14 +21199,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21508,14 +21232,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21547,14 +21265,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21586,14 +21298,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21622,19 +21328,13 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
-        <v>1.00963963963964</v>
+        <v>1</v>
       </c>
       <c r="M633" t="inlineStr"/>
     </row>
@@ -21661,7 +21361,7 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21694,7 +21394,7 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21727,7 +21427,7 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21760,7 +21460,7 @@
         <v>-3527897.609667315</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21793,7 +21493,7 @@
         <v>-3511781.609667315</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21826,7 +21526,7 @@
         <v>-3489440.609667315</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21859,7 +21559,7 @@
         <v>-3505668.609667315</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21892,7 +21592,7 @@
         <v>-3478015.609667315</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21925,7 +21625,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21958,7 +21658,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21991,7 +21691,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22024,7 +21724,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22057,7 +21757,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22090,7 +21790,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22123,7 +21823,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22156,7 +21856,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22189,7 +21889,7 @@
         <v>-3495484.609667315</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22222,7 +21922,7 @@
         <v>-3513031.943067315</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22255,7 +21955,7 @@
         <v>-3501755.943067315</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22288,7 +21988,7 @@
         <v>-3481177.943067315</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22321,7 +22021,7 @@
         <v>-3481177.943067315</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22354,7 +22054,7 @@
         <v>-3481177.943067315</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -28360,7 +28060,7 @@
         <v>-3800723.713897773</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28393,7 +28093,7 @@
         <v>-3787310.713897773</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28426,7 +28126,7 @@
         <v>-3787310.713897773</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28459,7 +28159,7 @@
         <v>-3787310.713897773</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28492,7 +28192,7 @@
         <v>-3801586.713897773</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28591,7 +28291,7 @@
         <v>-3781634.713897773</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29515,7 +29215,7 @@
         <v>-3738071.112197773</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -36610,325 +36310,281 @@
         <v>-4523213.861897772</v>
       </c>
       <c r="H1087" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1087" t="inlineStr"/>
+      <c r="J1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr"/>
+      <c r="L1087" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1088" t="n">
         <v>8.94</v>
       </c>
-      <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr">
+      <c r="C1088" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>17424</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>-4540637.861897772</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1088" t="inlineStr"/>
+      <c r="J1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr"/>
+      <c r="L1088" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>23069</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>-4517568.861897772</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1089" t="inlineStr"/>
+      <c r="J1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr"/>
+      <c r="L1089" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>22113</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>-4539681.861897772</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1090" t="inlineStr"/>
+      <c r="J1090" t="inlineStr"/>
+      <c r="K1090" t="inlineStr"/>
+      <c r="L1090" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>9794</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>-4539681.861897772</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1091" t="inlineStr"/>
+      <c r="J1091" t="inlineStr"/>
+      <c r="K1091" t="inlineStr"/>
+      <c r="L1091" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>8.933999999999999</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>8.933999999999999</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>8.933999999999999</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>8.933999999999999</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>22372</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>-4562053.861897772</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1092" t="inlineStr"/>
+      <c r="J1092" t="inlineStr"/>
+      <c r="K1092" t="inlineStr"/>
+      <c r="L1092" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1092" t="inlineStr"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>25167</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>-4536886.861897772</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1093" t="inlineStr"/>
+      <c r="J1093" t="inlineStr"/>
+      <c r="K1093" t="inlineStr"/>
+      <c r="L1093" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>20365</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>-4536886.861897772</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1094" t="inlineStr"/>
+      <c r="J1094" t="inlineStr"/>
+      <c r="K1094" t="inlineStr"/>
+      <c r="L1094" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>8.946</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>8.946</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>86084.1626</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>-4450802.699297772</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="J1095" t="inlineStr"/>
+      <c r="K1095" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1087" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1087" t="inlineStr"/>
-    </row>
-    <row r="1088">
-      <c r="A1088" s="1" t="n">
-        <v>1086</v>
-      </c>
-      <c r="B1088" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="C1088" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="D1088" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="E1088" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="F1088" t="n">
-        <v>17424</v>
-      </c>
-      <c r="G1088" t="n">
-        <v>-4540637.861897772</v>
-      </c>
-      <c r="H1088" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1088" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1088" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1088" t="inlineStr"/>
-    </row>
-    <row r="1089">
-      <c r="A1089" s="1" t="n">
-        <v>1087</v>
-      </c>
-      <c r="B1089" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="C1089" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="D1089" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="E1089" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="F1089" t="n">
-        <v>23069</v>
-      </c>
-      <c r="G1089" t="n">
-        <v>-4517568.861897772</v>
-      </c>
-      <c r="H1089" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1089" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1089" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1089" t="inlineStr"/>
-    </row>
-    <row r="1090">
-      <c r="A1090" s="1" t="n">
-        <v>1088</v>
-      </c>
-      <c r="B1090" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="C1090" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="D1090" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="E1090" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="F1090" t="n">
-        <v>22113</v>
-      </c>
-      <c r="G1090" t="n">
-        <v>-4539681.861897772</v>
-      </c>
-      <c r="H1090" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1090" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1090" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1090" t="inlineStr"/>
-    </row>
-    <row r="1091">
-      <c r="A1091" s="1" t="n">
-        <v>1089</v>
-      </c>
-      <c r="B1091" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="C1091" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="D1091" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E1091" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="F1091" t="n">
-        <v>9794</v>
-      </c>
-      <c r="G1091" t="n">
-        <v>-4539681.861897772</v>
-      </c>
-      <c r="H1091" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1091" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1091" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1091" t="inlineStr"/>
-    </row>
-    <row r="1092">
-      <c r="A1092" s="1" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B1092" t="n">
-        <v>8.933999999999999</v>
-      </c>
-      <c r="C1092" t="n">
-        <v>8.933999999999999</v>
-      </c>
-      <c r="D1092" t="n">
-        <v>8.933999999999999</v>
-      </c>
-      <c r="E1092" t="n">
-        <v>8.933999999999999</v>
-      </c>
-      <c r="F1092" t="n">
-        <v>22372</v>
-      </c>
-      <c r="G1092" t="n">
-        <v>-4562053.861897772</v>
-      </c>
-      <c r="H1092" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1092" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1092" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1092" t="inlineStr"/>
-    </row>
-    <row r="1093">
-      <c r="A1093" s="1" t="n">
-        <v>1091</v>
-      </c>
-      <c r="B1093" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="C1093" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="D1093" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="E1093" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="F1093" t="n">
-        <v>25167</v>
-      </c>
-      <c r="G1093" t="n">
-        <v>-4536886.861897772</v>
-      </c>
-      <c r="H1093" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1093" t="n">
-        <v>8.933999999999999</v>
-      </c>
-      <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1093" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1093" t="inlineStr"/>
-    </row>
-    <row r="1094">
-      <c r="A1094" s="1" t="n">
-        <v>1092</v>
-      </c>
-      <c r="B1094" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="C1094" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="D1094" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="E1094" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="F1094" t="n">
-        <v>20365</v>
-      </c>
-      <c r="G1094" t="n">
-        <v>-4536886.861897772</v>
-      </c>
-      <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1094" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1094" t="inlineStr"/>
-    </row>
-    <row r="1095">
-      <c r="A1095" s="1" t="n">
-        <v>1093</v>
-      </c>
-      <c r="B1095" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="C1095" t="n">
-        <v>8.946</v>
-      </c>
-      <c r="D1095" t="n">
-        <v>8.946</v>
-      </c>
-      <c r="E1095" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="F1095" t="n">
-        <v>86084.1626</v>
-      </c>
-      <c r="G1095" t="n">
-        <v>-4450802.699297772</v>
-      </c>
-      <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -36957,11 +36613,9 @@
         <v>-4490899.984297772</v>
       </c>
       <c r="H1096" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1096" t="n">
-        <v>8.946</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
@@ -36996,11 +36650,9 @@
         <v>-4490843.984297772</v>
       </c>
       <c r="H1097" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1097" t="n">
-        <v>8.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
@@ -37516,9 +37168,11 @@
         <v>-4480738.321197772</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>8.94</v>
+      </c>
       <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
@@ -37553,9 +37207,11 @@
         <v>-4502350.321197772</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
@@ -37812,9 +37468,11 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>8.94</v>
+      </c>
       <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
@@ -37849,9 +37507,11 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
@@ -37886,9 +37546,11 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
@@ -37923,9 +37585,11 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
@@ -37960,9 +37624,11 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
@@ -37997,9 +37663,11 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr">
         <is>
@@ -38034,9 +37702,11 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr">
         <is>
@@ -38071,9 +37741,11 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr">
         <is>
@@ -38108,9 +37780,11 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
@@ -38145,9 +37819,11 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
@@ -38182,9 +37858,11 @@
         <v>-4499971.205673512</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
@@ -38219,9 +37897,11 @@
         <v>-4519034.205673512</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
@@ -38256,9 +37936,11 @@
         <v>-4519034.205673512</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>8.94</v>
+      </c>
       <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
@@ -38293,9 +37975,11 @@
         <v>-4506641.205673512</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>8.94</v>
+      </c>
       <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
@@ -38330,9 +38014,11 @@
         <v>-4523941.205673512</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
@@ -38367,9 +38053,11 @@
         <v>-4500934.205673512</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>8.94</v>
+      </c>
       <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr">
         <is>
@@ -38404,9 +38092,11 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
@@ -38441,9 +38131,11 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
@@ -38478,9 +38170,11 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr">
         <is>
@@ -38515,9 +38209,11 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
@@ -38552,9 +38248,11 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
@@ -38589,9 +38287,11 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
@@ -38626,9 +38326,11 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
@@ -38663,9 +38365,11 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr">
         <is>
@@ -38700,9 +38404,11 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr">
         <is>
@@ -38737,9 +38443,11 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
@@ -38774,9 +38482,11 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr">
         <is>
@@ -38811,9 +38521,11 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
@@ -38848,9 +38560,11 @@
         <v>-4487880.205673512</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr">
         <is>
@@ -38885,9 +38599,11 @@
         <v>-4471476.205673512</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr">
         <is>
@@ -39033,9 +38749,11 @@
         <v>-4486198.205673512</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
@@ -39070,9 +38788,11 @@
         <v>-4486198.205673512</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
@@ -39107,9 +38827,11 @@
         <v>-4470479.205673512</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr">
         <is>
@@ -39144,9 +38866,11 @@
         <v>-4470479.205673512</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>8.970000000000001</v>
+      </c>
       <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
@@ -39181,9 +38905,11 @@
         <v>-4470479.205673512</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>8.970000000000001</v>
+      </c>
       <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
@@ -39218,9 +38944,11 @@
         <v>-4470479.205673512</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>8.970000000000001</v>
+      </c>
       <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
@@ -39255,9 +38983,11 @@
         <v>-4450711.205673512</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>8.970000000000001</v>
+      </c>
       <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
@@ -39292,9 +39022,11 @@
         <v>-4450711.205673512</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>8.98</v>
+      </c>
       <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
@@ -39329,9 +39061,11 @@
         <v>-4462013.205673512</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>8.98</v>
+      </c>
       <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
@@ -39366,9 +39100,11 @@
         <v>-4449593.205673512</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>8.970000000000001</v>
+      </c>
       <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
@@ -39403,9 +39139,11 @@
         <v>-4449593.205673512</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>8.98</v>
+      </c>
       <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
@@ -39440,9 +39178,11 @@
         <v>-4449593.205673512</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>8.98</v>
+      </c>
       <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr">
         <is>
